--- a/OREI_files/10-herd data/10herd_species_ID_from_sequencing.xlsx
+++ b/OREI_files/10-herd data/10herd_species_ID_from_sequencing.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c792ef73e4c0296d/Documents/OREI files and Git repo/OREI_Git/OREI_files/10-herd data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="14_{B1AF9F48-697F-4479-931F-AA593F2E6926}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="14_{B1AF9F48-697F-4479-931F-AA593F2E6926}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6EF75FEE-B19D-4F9E-A46B-EB7A4DE05FFF}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="tuf 10.31.22" sheetId="6" r:id="rId1"/>
@@ -23,23 +23,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="615" uniqueCount="248">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="620" uniqueCount="249">
   <si>
     <t>sample</t>
   </si>
@@ -716,9 +705,6 @@
     <t>vt037</t>
   </si>
   <si>
-    <t>sp043</t>
-  </si>
-  <si>
     <t>sw044</t>
   </si>
   <si>
@@ -783,17 +769,30 @@
   </si>
   <si>
     <t>GTTGAAATCATCGGTTTATCTGAAGAATCTTCTAAAACAACTGTTACTGGTGTAGAAATGTTCCGTAAGTTATTAGACTACGCTGAAGCTGGTGACAACATTGGTGCTTTATTACGTGGTGTTGCTCGTGAAGACGTACAACGTGGTCAAGTATTAGCTGCTCCTGGTTCAATCACACCACACACAAAATTTAAAGCTGAAGTATACGTTTTATCAAAAGACGAAGGTGGACGTCACACTCCATTCTTCTCTAACTACCGCCC</t>
+  </si>
+  <si>
+    <t>AGGACGTATTCTCAATCACAGGTCGTGGTACAGTTGCTACTGGCCGTGTTGAACGTGGTCAAATCAAAGTTGGTGAAGAAGTTGAAATCATCGGTTTAACTGAAGAATCTTCTAAAACAACTGTTACTGGTGTAGAAATGTTCCGTAAGTTATTAGACTACGCTGAAGCTGGTGACAACATCGGTGCGTTATTACGTGGTGTTGCTCGTGAAGACGTACAACGTGGTCAAGTATTAGCTGCTCCTGGTTCAATCACACCACACACAAAATTTAAAGCTGAAGTATACGTTTTATCAAAAGACGAAGGTGGACGTCACACTCCATTCTTCTCTAACTACCGCCCACAATTCTATTTCCGTACTACTGACGTAACTGGCGTTGTTCACTTACCAGA</t>
+  </si>
+  <si>
+    <t>sp043 (actually from 2.17.23)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1023,145 +1022,146 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="11" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="11" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="7" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="11" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="11" fontId="7" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="7" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="6" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="7" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="6" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="7" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="6" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="7" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="6" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="7" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="2" applyFill="1"/>
-    <xf numFmtId="11" fontId="6" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="2" applyFill="1"/>
+    <xf numFmtId="11" fontId="7" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="11" fontId="6" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="11" fontId="7" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="6" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="7" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="11" fontId="6" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="11" fontId="7" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="6" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="7" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1187,6 +1187,10 @@
 </file>
 
 <file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
+<file path=xl/persons/person0.xml><?xml version="1.0" encoding="utf-8"?>
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
@@ -1455,8 +1459,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AB1000"/>
   <sheetViews>
-    <sheetView zoomScale="65" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29:XFD29"/>
+    <sheetView topLeftCell="A4" zoomScale="65" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -4118,14 +4122,14 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:AC14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" zoomScale="76" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="23.26953125" customWidth="1"/>
-    <col min="2" max="2" width="14.7265625" customWidth="1"/>
+    <col min="2" max="2" width="18.81640625" customWidth="1"/>
     <col min="3" max="3" width="35.1796875" customWidth="1"/>
     <col min="4" max="7" width="8.7265625" customWidth="1"/>
     <col min="8" max="9" width="11.1796875" customWidth="1"/>
@@ -4214,7 +4218,7 @@
     <row r="2" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A2" s="46"/>
       <c r="B2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C2" s="48" t="s">
         <v>20</v>
@@ -4226,10 +4230,10 @@
         <v>241</v>
       </c>
       <c r="I2" t="s">
+        <v>227</v>
+      </c>
+      <c r="K2" s="18" t="s">
         <v>228</v>
-      </c>
-      <c r="K2" s="18" t="s">
-        <v>229</v>
       </c>
       <c r="L2" s="14" t="s">
         <v>20</v>
@@ -4272,10 +4276,10 @@
         <v>276</v>
       </c>
       <c r="I3" t="s">
+        <v>229</v>
+      </c>
+      <c r="K3" s="5" t="s">
         <v>230</v>
-      </c>
-      <c r="K3" s="5" t="s">
-        <v>231</v>
       </c>
       <c r="L3" s="1" t="s">
         <v>88</v>
@@ -4299,7 +4303,7 @@
         <v>498</v>
       </c>
       <c r="S3" s="5" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="4" spans="1:29" x14ac:dyDescent="0.35">
@@ -4317,10 +4321,10 @@
         <v>276</v>
       </c>
       <c r="I4" t="s">
+        <v>229</v>
+      </c>
+      <c r="K4" s="5" t="s">
         <v>230</v>
-      </c>
-      <c r="K4" s="5" t="s">
-        <v>231</v>
       </c>
       <c r="L4" s="1" t="s">
         <v>88</v>
@@ -4344,7 +4348,7 @@
         <v>498</v>
       </c>
       <c r="S4" s="5" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="5" spans="1:29" x14ac:dyDescent="0.35">
@@ -4361,10 +4365,10 @@
         <v>255</v>
       </c>
       <c r="I5" t="s">
+        <v>232</v>
+      </c>
+      <c r="K5" s="18" t="s">
         <v>233</v>
-      </c>
-      <c r="K5" s="18" t="s">
-        <v>234</v>
       </c>
       <c r="L5" s="14" t="s">
         <v>115</v>
@@ -4388,7 +4392,7 @@
         <v>2424566</v>
       </c>
       <c r="S5" s="18" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="6" spans="1:29" x14ac:dyDescent="0.35">
@@ -4405,10 +4409,10 @@
         <v>231</v>
       </c>
       <c r="I6" t="s">
+        <v>235</v>
+      </c>
+      <c r="K6" s="18" t="s">
         <v>236</v>
-      </c>
-      <c r="K6" s="18" t="s">
-        <v>237</v>
       </c>
       <c r="L6" s="14" t="s">
         <v>115</v>
@@ -4432,7 +4436,7 @@
         <v>374</v>
       </c>
       <c r="S6" s="18" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="7" spans="1:29" x14ac:dyDescent="0.35">
@@ -4449,10 +4453,10 @@
         <v>241</v>
       </c>
       <c r="I7" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="K7" s="5" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="L7" s="1" t="s">
         <v>115</v>
@@ -4476,7 +4480,7 @@
         <v>2424566</v>
       </c>
       <c r="S7" s="5" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="8" spans="1:29" x14ac:dyDescent="0.35">
@@ -4493,10 +4497,10 @@
         <v>264</v>
       </c>
       <c r="I8" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="K8" s="5" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="L8" s="1" t="s">
         <v>115</v>
@@ -4520,7 +4524,7 @@
         <v>2424566</v>
       </c>
       <c r="S8" s="5" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="9" spans="1:29" x14ac:dyDescent="0.35">
@@ -4538,10 +4542,10 @@
         <v>272</v>
       </c>
       <c r="I9" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="K9" s="5" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="L9" s="1" t="s">
         <v>20</v>
@@ -4583,10 +4587,10 @@
         <v>290</v>
       </c>
       <c r="I10" t="s">
+        <v>241</v>
+      </c>
+      <c r="K10" s="5" t="s">
         <v>242</v>
-      </c>
-      <c r="K10" s="5" t="s">
-        <v>243</v>
       </c>
       <c r="L10" s="1" t="s">
         <v>177</v>
@@ -4610,7 +4614,7 @@
         <v>807</v>
       </c>
       <c r="S10" s="5" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="11" spans="1:29" s="44" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -4628,10 +4632,10 @@
         <v>210</v>
       </c>
       <c r="I11" s="44" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="K11" s="50" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="L11" s="51" t="s">
         <v>177</v>
@@ -4655,99 +4659,135 @@
         <v>807</v>
       </c>
       <c r="S11" s="50" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="12" spans="1:29" x14ac:dyDescent="0.35">
       <c r="A12" s="56" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B12" t="s">
-        <v>225</v>
+        <v>223</v>
+      </c>
+      <c r="C12" s="48" t="s">
+        <v>115</v>
+      </c>
+      <c r="E12">
+        <v>274</v>
+      </c>
+      <c r="I12" t="s">
+        <v>245</v>
+      </c>
+      <c r="K12" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="M12" s="2">
+        <v>501</v>
+      </c>
+      <c r="N12" s="2">
+        <v>501</v>
+      </c>
+      <c r="O12" s="3">
+        <v>1</v>
+      </c>
+      <c r="P12" s="6">
+        <v>2E-137</v>
+      </c>
+      <c r="Q12" s="4">
+        <v>0.99639999999999995</v>
+      </c>
+      <c r="R12" s="2">
+        <v>2424566</v>
+      </c>
+      <c r="S12" s="5" t="s">
+        <v>234</v>
       </c>
     </row>
     <row r="13" spans="1:29" ht="32.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="57"/>
       <c r="B13" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C13" s="48" t="s">
         <v>115</v>
       </c>
       <c r="E13">
-        <v>274</v>
+        <v>262</v>
       </c>
       <c r="I13" t="s">
         <v>246</v>
       </c>
-      <c r="K13" s="5" t="s">
+      <c r="K13" s="18" t="s">
+        <v>233</v>
+      </c>
+      <c r="L13" s="14" t="s">
+        <v>115</v>
+      </c>
+      <c r="M13" s="15">
+        <v>484</v>
+      </c>
+      <c r="N13" s="15">
+        <v>484</v>
+      </c>
+      <c r="O13" s="16">
+        <v>1</v>
+      </c>
+      <c r="P13" s="45">
+        <v>2E-132</v>
+      </c>
+      <c r="Q13" s="17">
+        <v>1</v>
+      </c>
+      <c r="R13" s="15">
+        <v>2424566</v>
+      </c>
+      <c r="S13" s="18" t="s">
         <v>234</v>
-      </c>
-      <c r="L13" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="M13" s="2">
-        <v>501</v>
-      </c>
-      <c r="N13" s="2">
-        <v>501</v>
-      </c>
-      <c r="O13" s="3">
-        <v>1</v>
-      </c>
-      <c r="P13" s="6">
-        <v>2E-137</v>
-      </c>
-      <c r="Q13" s="4">
-        <v>0.99639999999999995</v>
-      </c>
-      <c r="R13" s="2">
-        <v>2424566</v>
-      </c>
-      <c r="S13" s="5" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="14" spans="1:29" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A14" s="58"/>
-      <c r="B14" t="s">
-        <v>224</v>
+      <c r="B14" s="59" t="s">
+        <v>248</v>
       </c>
       <c r="C14" s="48" t="s">
         <v>115</v>
       </c>
       <c r="E14">
-        <v>262</v>
-      </c>
-      <c r="I14" t="s">
+        <v>394</v>
+      </c>
+      <c r="I14" s="59" t="s">
         <v>247</v>
       </c>
       <c r="K14" s="18" t="s">
-        <v>234</v>
+        <v>116</v>
       </c>
       <c r="L14" s="14" t="s">
         <v>115</v>
       </c>
       <c r="M14" s="15">
-        <v>484</v>
+        <v>717</v>
       </c>
       <c r="N14" s="15">
-        <v>484</v>
+        <v>717</v>
       </c>
       <c r="O14" s="16">
         <v>1</v>
       </c>
-      <c r="P14" s="45">
-        <v>2E-132</v>
+      <c r="P14" s="15">
+        <v>0</v>
       </c>
       <c r="Q14" s="17">
-        <v>1</v>
+        <v>0.99490000000000001</v>
       </c>
       <c r="R14" s="15">
-        <v>2424566</v>
+        <v>2350748</v>
       </c>
       <c r="S14" s="18" t="s">
-        <v>235</v>
+        <v>114</v>
       </c>
     </row>
   </sheetData>
@@ -4794,17 +4834,21 @@
     <hyperlink ref="K11" r:id="rId37" location="alnHdr_1487186795" tooltip="Go to alignment for Staphylococcus fleurettii strain DSM 13212 translation elongation factor Tu (tuf) gene, partial cds" display="https://blast.ncbi.nlm.nih.gov/Blast.cgi - alnHdr_1487186795" xr:uid="{00000000-0004-0000-0100-000024000000}"/>
     <hyperlink ref="L11" r:id="rId38" tooltip="Taxonomy for Mammaliicoccus fleurettii" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?id=150056" xr:uid="{00000000-0004-0000-0100-000025000000}"/>
     <hyperlink ref="S11" r:id="rId39" tooltip="Show report for MF678992.1" display="https://www.ncbi.nlm.nih.gov/nucleotide/MF678992.1?report=genbank&amp;log$=nucltop&amp;blast_rank=1&amp;RID=WE4866BH013" xr:uid="{00000000-0004-0000-0100-000026000000}"/>
-    <hyperlink ref="C13" r:id="rId40" tooltip="Taxonomy for Staphylococcus chromogenes" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?id=46126" xr:uid="{00000000-0004-0000-0100-000027000000}"/>
-    <hyperlink ref="C14" r:id="rId41" tooltip="Taxonomy for Staphylococcus chromogenes" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?id=46126" xr:uid="{00000000-0004-0000-0100-000028000000}"/>
-    <hyperlink ref="S13" r:id="rId42" tooltip="Show report for CP031471.1" display="https://www.ncbi.nlm.nih.gov/nucleotide/CP031471.1?report=genbank&amp;log$=nucltop&amp;blast_rank=1&amp;RID=WE5EWY8D016" xr:uid="{00000000-0004-0000-0100-000029000000}"/>
-    <hyperlink ref="L13" r:id="rId43" tooltip="Taxonomy for Staphylococcus chromogenes" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?id=46126" xr:uid="{00000000-0004-0000-0100-00002A000000}"/>
-    <hyperlink ref="K13" r:id="rId44" location="alnHdr_1714022118" tooltip="Go to alignment for Staphylococcus chromogenes strain 20B chromosome, complete genome" display="https://blast.ncbi.nlm.nih.gov/Blast.cgi - alnHdr_1714022118" xr:uid="{00000000-0004-0000-0100-00002B000000}"/>
-    <hyperlink ref="K14" r:id="rId45" location="alnHdr_1714022118" tooltip="Go to alignment for Staphylococcus chromogenes strain 20B chromosome, complete genome" display="https://blast.ncbi.nlm.nih.gov/Blast.cgi - alnHdr_1714022118" xr:uid="{00000000-0004-0000-0100-00002C000000}"/>
-    <hyperlink ref="L14" r:id="rId46" tooltip="Taxonomy for Staphylococcus chromogenes" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?id=46126" xr:uid="{00000000-0004-0000-0100-00002D000000}"/>
-    <hyperlink ref="S14" r:id="rId47" tooltip="Show report for CP031471.1" display="https://www.ncbi.nlm.nih.gov/nucleotide/CP031471.1?report=genbank&amp;log$=nucltop&amp;blast_rank=1&amp;RID=WE63MH34013" xr:uid="{00000000-0004-0000-0100-00002E000000}"/>
+    <hyperlink ref="C12" r:id="rId40" tooltip="Taxonomy for Staphylococcus chromogenes" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?id=46126" xr:uid="{00000000-0004-0000-0100-000027000000}"/>
+    <hyperlink ref="C13" r:id="rId41" tooltip="Taxonomy for Staphylococcus chromogenes" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?id=46126" xr:uid="{00000000-0004-0000-0100-000028000000}"/>
+    <hyperlink ref="S12" r:id="rId42" tooltip="Show report for CP031471.1" display="https://www.ncbi.nlm.nih.gov/nucleotide/CP031471.1?report=genbank&amp;log$=nucltop&amp;blast_rank=1&amp;RID=WE5EWY8D016" xr:uid="{00000000-0004-0000-0100-000029000000}"/>
+    <hyperlink ref="L12" r:id="rId43" tooltip="Taxonomy for Staphylococcus chromogenes" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?id=46126" xr:uid="{00000000-0004-0000-0100-00002A000000}"/>
+    <hyperlink ref="K12" r:id="rId44" location="alnHdr_1714022118" tooltip="Go to alignment for Staphylococcus chromogenes strain 20B chromosome, complete genome" display="https://blast.ncbi.nlm.nih.gov/Blast.cgi - alnHdr_1714022118" xr:uid="{00000000-0004-0000-0100-00002B000000}"/>
+    <hyperlink ref="K13" r:id="rId45" location="alnHdr_1714022118" tooltip="Go to alignment for Staphylococcus chromogenes strain 20B chromosome, complete genome" display="https://blast.ncbi.nlm.nih.gov/Blast.cgi - alnHdr_1714022118" xr:uid="{00000000-0004-0000-0100-00002C000000}"/>
+    <hyperlink ref="L13" r:id="rId46" tooltip="Taxonomy for Staphylococcus chromogenes" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?id=46126" xr:uid="{00000000-0004-0000-0100-00002D000000}"/>
+    <hyperlink ref="S13" r:id="rId47" tooltip="Show report for CP031471.1" display="https://www.ncbi.nlm.nih.gov/nucleotide/CP031471.1?report=genbank&amp;log$=nucltop&amp;blast_rank=1&amp;RID=WE63MH34013" xr:uid="{00000000-0004-0000-0100-00002E000000}"/>
+    <hyperlink ref="K14" r:id="rId48" location="alnHdr_1822098124" tooltip="Go to alignment for Staphylococcus chromogenes strain 1401 chromosome, complete genome" display="https://blast.ncbi.nlm.nih.gov/Blast.cgi - alnHdr_1822098124" xr:uid="{7DD275D5-5C0E-4E74-A0A9-39E521FC7852}"/>
+    <hyperlink ref="L14" r:id="rId49" tooltip="Taxonomy for Staphylococcus chromogenes" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?id=46126" xr:uid="{0BA7A0F1-93E4-4A3A-8955-A670BDD61959}"/>
+    <hyperlink ref="S14" r:id="rId50" tooltip="Show report for CP046028.1" display="https://www.ncbi.nlm.nih.gov/nucleotide/CP046028.1?report=genbank&amp;log$=nucltop&amp;blast_rank=1&amp;RID=ZJ2M2RH101N" xr:uid="{158D9B8D-FDA9-4840-AB09-556BAD87C4D0}"/>
+    <hyperlink ref="C14" r:id="rId51" tooltip="Taxonomy for Staphylococcus chromogenes" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?id=46126" xr:uid="{9E351147-FC67-4F27-B903-8BF49EAC91C7}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="292" orientation="portrait" horizontalDpi="325" verticalDpi="325" r:id="rId48"/>
+  <pageSetup paperSize="292" orientation="portrait" horizontalDpi="325" verticalDpi="325" r:id="rId52"/>
 </worksheet>
 </file>
 
@@ -4819,7 +4863,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.1796875" style="21"/>
+    <col min="1" max="1" width="11.453125" style="21" customWidth="1"/>
     <col min="2" max="2" width="48.81640625" style="21" customWidth="1"/>
     <col min="3" max="3" width="29" style="21" customWidth="1"/>
     <col min="4" max="9" width="9.1796875" style="21"/>

--- a/OREI_files/10-herd data/10herd_species_ID_from_sequencing.xlsx
+++ b/OREI_files/10-herd data/10herd_species_ID_from_sequencing.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c792ef73e4c0296d/Documents/OREI files and Git repo/OREI_Git/OREI_files/10-herd data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="14_{B1AF9F48-697F-4479-931F-AA593F2E6926}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6EF75FEE-B19D-4F9E-A46B-EB7A4DE05FFF}"/>
+  <xr:revisionPtr revIDLastSave="5" documentId="14_{B1AF9F48-697F-4479-931F-AA593F2E6926}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1B2AC031-9EEB-4C68-A367-6093F7394429}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="tuf 10.31.22" sheetId="6" r:id="rId1"/>
@@ -1152,6 +1152,7 @@
     <xf numFmtId="10" fontId="7" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="14" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1161,7 +1162,6 @@
     <xf numFmtId="0" fontId="14" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -4123,13 +4123,13 @@
   <dimension ref="A1:AC14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="76" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="23.26953125" customWidth="1"/>
-    <col min="2" max="2" width="18.81640625" customWidth="1"/>
+    <col min="2" max="2" width="26.7265625" customWidth="1"/>
     <col min="3" max="3" width="35.1796875" customWidth="1"/>
     <col min="4" max="7" width="8.7265625" customWidth="1"/>
     <col min="8" max="9" width="11.1796875" customWidth="1"/>
@@ -4663,7 +4663,7 @@
       </c>
     </row>
     <row r="12" spans="1:29" x14ac:dyDescent="0.35">
-      <c r="A12" s="56" t="s">
+      <c r="A12" s="57" t="s">
         <v>226</v>
       </c>
       <c r="B12" t="s">
@@ -4707,7 +4707,7 @@
       </c>
     </row>
     <row r="13" spans="1:29" ht="32.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="57"/>
+      <c r="A13" s="58"/>
       <c r="B13" t="s">
         <v>224</v>
       </c>
@@ -4749,8 +4749,8 @@
       </c>
     </row>
     <row r="14" spans="1:29" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="58"/>
-      <c r="B14" s="59" t="s">
+      <c r="A14" s="59"/>
+      <c r="B14" s="56" t="s">
         <v>248</v>
       </c>
       <c r="C14" s="48" t="s">
@@ -4759,7 +4759,7 @@
       <c r="E14">
         <v>394</v>
       </c>
-      <c r="I14" s="59" t="s">
+      <c r="I14" s="56" t="s">
         <v>247</v>
       </c>
       <c r="K14" s="18" t="s">

--- a/OREI_files/10-herd data/10herd_species_ID_from_sequencing.xlsx
+++ b/OREI_files/10-herd data/10herd_species_ID_from_sequencing.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c792ef73e4c0296d/Documents/OREI files and Git repo/OREI_Git/OREI_files/10-herd data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5" documentId="14_{B1AF9F48-697F-4479-931F-AA593F2E6926}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1B2AC031-9EEB-4C68-A367-6093F7394429}"/>
+  <xr:revisionPtr revIDLastSave="7" documentId="14_{B1AF9F48-697F-4479-931F-AA593F2E6926}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4941A1AE-9347-452E-A1FD-9A96F414164A}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="tuf 10.31.22" sheetId="6" r:id="rId1"/>
     <sheet name="tuf 1.11.23" sheetId="7" r:id="rId2"/>
-    <sheet name="16S 12.6.22" sheetId="5" r:id="rId3"/>
-    <sheet name="rpob 12.7.22" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="8" r:id="rId3"/>
+    <sheet name="16S 12.6.22" sheetId="5" r:id="rId4"/>
+    <sheet name="rpob 12.7.22" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="620" uniqueCount="249">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="621" uniqueCount="250">
   <si>
     <t>sample</t>
   </si>
@@ -775,6 +776,9 @@
   </si>
   <si>
     <t>sp043 (actually from 2.17.23)</t>
+  </si>
+  <si>
+    <t>vt36</t>
   </si>
 </sst>
 </file>
@@ -1186,14 +1190,6 @@
 </styleSheet>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
-<file path=xl/persons/person0.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -1459,7 +1455,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AB1000"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="65" workbookViewId="0">
+    <sheetView zoomScale="65" workbookViewId="0">
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
@@ -4120,10 +4116,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AC14"/>
+  <dimension ref="A1:AC18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="76" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4788,6 +4784,11 @@
       </c>
       <c r="S14" s="18" t="s">
         <v>114</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B18" t="s">
+        <v>249</v>
       </c>
     </row>
   </sheetData>
@@ -4853,11 +4854,23 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFA04D06-A254-4CA6-8FC2-1A4EB0FE3A57}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:N39"/>
   <sheetViews>
-    <sheetView zoomScale="80" workbookViewId="0">
+    <sheetView topLeftCell="A16" zoomScale="80" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -6159,7 +6172,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:Z12"/>
   <sheetViews>

--- a/OREI_files/10-herd data/10herd_species_ID_from_sequencing.xlsx
+++ b/OREI_files/10-herd data/10herd_species_ID_from_sequencing.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c792ef73e4c0296d/Documents/OREI files and Git repo/OREI_Git/OREI_files/10-herd data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="7" documentId="14_{B1AF9F48-697F-4479-931F-AA593F2E6926}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4941A1AE-9347-452E-A1FD-9A96F414164A}"/>
+  <xr:revisionPtr revIDLastSave="8" documentId="14_{B1AF9F48-697F-4479-931F-AA593F2E6926}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4000E309-7EF5-4316-9477-D6651F0419AE}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-90" yWindow="0" windowWidth="12980" windowHeight="15370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="tuf 10.31.22" sheetId="6" r:id="rId1"/>
-    <sheet name="tuf 1.11.23" sheetId="7" r:id="rId2"/>
-    <sheet name="Sheet1" sheetId="8" r:id="rId3"/>
+    <sheet name="nasm_SCC manuscript tuf questio" sheetId="10" r:id="rId1"/>
+    <sheet name="tuf 10.31.22" sheetId="6" r:id="rId2"/>
+    <sheet name="tuf 1.11.23" sheetId="7" r:id="rId3"/>
     <sheet name="16S 12.6.22" sheetId="5" r:id="rId4"/>
     <sheet name="rpob 12.7.22" sheetId="4" r:id="rId5"/>
   </sheets>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="621" uniqueCount="250">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="737" uniqueCount="251">
   <si>
     <t>sample</t>
   </si>
@@ -779,17 +779,27 @@
   </si>
   <si>
     <t>vt36</t>
+  </si>
+  <si>
+    <t>NO ID</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -890,6 +900,12 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1024,153 +1040,164 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="11" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="11" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="7" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="8" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="11" fontId="7" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="11" fontId="8" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="7" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="8" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="7" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="8" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="7" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="8" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="7" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="8" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="7" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="8" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="2" applyFill="1"/>
-    <xf numFmtId="11" fontId="7" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="2" applyFill="1"/>
+    <xf numFmtId="11" fontId="8" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="11" fontId="8" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="11" fontId="7" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="8" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="8" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="3" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="7" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="7" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="3" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Normal 3" xfId="3" xr:uid="{4B4BEB8F-A8F0-443A-8EAA-A9381A6A55FA}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1452,11 +1479,498 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23A634FC-32AE-4F7E-A3A9-D6F87656974C}">
+  <dimension ref="A1:C39"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A32" sqref="A32:XFD39"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="8.7265625" style="60"/>
+    <col min="2" max="2" width="29.453125" style="60" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="8.7265625" style="60"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" s="65" t="s">
+        <v>84</v>
+      </c>
+      <c r="B1" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="65" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" s="65" t="s">
+        <v>72</v>
+      </c>
+      <c r="B2" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="65" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" s="65" t="s">
+        <v>31</v>
+      </c>
+      <c r="B3" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="60" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" s="65" t="s">
+        <v>78</v>
+      </c>
+      <c r="B4" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="65" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" s="65" t="s">
+        <v>49</v>
+      </c>
+      <c r="B5" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="60" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6" s="65" t="s">
+        <v>45</v>
+      </c>
+      <c r="B6" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="60" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7" s="65" t="s">
+        <v>55</v>
+      </c>
+      <c r="B7" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="65" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A8" s="65" t="s">
+        <v>68</v>
+      </c>
+      <c r="B8" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="65" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A9" s="65" t="s">
+        <v>63</v>
+      </c>
+      <c r="B9" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="65" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A10" s="65" t="s">
+        <v>57</v>
+      </c>
+      <c r="B10" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="65" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A11" s="65" t="s">
+        <v>39</v>
+      </c>
+      <c r="B11" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="60" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A12" s="65" t="s">
+        <v>76</v>
+      </c>
+      <c r="B12" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" s="65" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A13" s="65" t="s">
+        <v>61</v>
+      </c>
+      <c r="B13" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" s="65" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A14" s="66" t="s">
+        <v>82</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" s="65" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A15" s="65" t="s">
+        <v>58</v>
+      </c>
+      <c r="B15" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15" s="65" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A16" s="65" t="s">
+        <v>69</v>
+      </c>
+      <c r="B16" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16" s="65" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A17" s="66" t="s">
+        <v>51</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C17" s="60" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A18" s="66" t="s">
+        <v>33</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C18" s="60" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A19" s="65" t="s">
+        <v>37</v>
+      </c>
+      <c r="B19" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="C19" s="60" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A20" s="65" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20" s="60" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A21" s="65" t="s">
+        <v>65</v>
+      </c>
+      <c r="B21" s="37" t="s">
+        <v>66</v>
+      </c>
+      <c r="C21" s="65" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A22" s="66" t="s">
+        <v>52</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C22" s="60" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A23" s="66" t="s">
+        <v>27</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C23" s="60" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A24" s="66" t="s">
+        <v>80</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C24" s="65" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A25" s="65" t="s">
+        <v>41</v>
+      </c>
+      <c r="B25" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="C25" s="60" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A26" s="65" t="s">
+        <v>74</v>
+      </c>
+      <c r="B26" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="65" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A27" s="65" t="s">
+        <v>47</v>
+      </c>
+      <c r="B27" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="C27" s="60" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A28" s="65" t="s">
+        <v>25</v>
+      </c>
+      <c r="B28" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="C28" s="60" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A29" s="60" t="s">
+        <v>16</v>
+      </c>
+      <c r="B29" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="C29" s="60" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A30" s="65" t="s">
+        <v>34</v>
+      </c>
+      <c r="B30" s="64" t="s">
+        <v>20</v>
+      </c>
+      <c r="C30" s="60" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A31" s="62" t="s">
+        <v>225</v>
+      </c>
+      <c r="B31" s="61" t="s">
+        <v>20</v>
+      </c>
+      <c r="C31" s="62"/>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A32" s="60" t="s">
+        <v>85</v>
+      </c>
+      <c r="B32" s="63" t="s">
+        <v>88</v>
+      </c>
+      <c r="C32" s="60" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A33" s="60" t="s">
+        <v>93</v>
+      </c>
+      <c r="B33" s="63" t="s">
+        <v>88</v>
+      </c>
+      <c r="C33" s="60" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A34" s="60" t="s">
+        <v>160</v>
+      </c>
+      <c r="B34" s="63" t="s">
+        <v>115</v>
+      </c>
+      <c r="C34" s="60" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A35" s="60" t="s">
+        <v>137</v>
+      </c>
+      <c r="B35" s="63" t="s">
+        <v>115</v>
+      </c>
+      <c r="C35" s="60" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A36" s="60" t="s">
+        <v>190</v>
+      </c>
+      <c r="B36" s="63" t="s">
+        <v>115</v>
+      </c>
+      <c r="C36" s="60" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A37" s="60" t="s">
+        <v>90</v>
+      </c>
+      <c r="B37" s="63" t="s">
+        <v>20</v>
+      </c>
+      <c r="C37" s="60" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A38" s="60" t="s">
+        <v>180</v>
+      </c>
+      <c r="B38" s="63" t="s">
+        <v>177</v>
+      </c>
+      <c r="C38" s="60" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A39" s="62" t="s">
+        <v>212</v>
+      </c>
+      <c r="B39" s="61" t="s">
+        <v>177</v>
+      </c>
+      <c r="C39" s="60" t="s">
+        <v>250</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B29" r:id="rId1" tooltip="Taxonomy for Staphylococcus agnetis" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?id=985762" xr:uid="{DB1CF356-2196-459A-8042-3062B0D66287}"/>
+    <hyperlink ref="B20" r:id="rId2" tooltip="Taxonomy for Staphylococcus agnetis" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?id=985762" xr:uid="{05AF01A0-95B3-4CC2-888D-558E38360E75}"/>
+    <hyperlink ref="B28" r:id="rId3" tooltip="Taxonomy for Staphylococcus agnetis" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?id=985762" xr:uid="{B5DF2411-4D1E-403C-BF85-44A8AAEFF4D9}"/>
+    <hyperlink ref="B23" r:id="rId4" tooltip="Taxonomy for Staphylococcus hyicus" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?id=1284" xr:uid="{39CE3C05-BDA8-46A1-8957-5A05F12E841C}"/>
+    <hyperlink ref="B3" r:id="rId5" tooltip="Taxonomy for Staphylococcus agnetis" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?id=985762" xr:uid="{323BA377-86A1-4C4F-A268-41E6C2B68677}"/>
+    <hyperlink ref="B18" r:id="rId6" tooltip="Taxonomy for Staphylococcus hyicus" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?id=1284" xr:uid="{5472FEF4-5688-423D-A0E7-94BD963639E4}"/>
+    <hyperlink ref="B30" r:id="rId7" tooltip="Taxonomy for Staphylococcus agnetis" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?id=985762" xr:uid="{CBED01AD-6207-4577-839A-D5D7AF321A4E}"/>
+    <hyperlink ref="B19" r:id="rId8" tooltip="Taxonomy for Staphylococcus agnetis" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?id=985762" xr:uid="{2F3F6BFF-C191-4483-BF52-2A5BC673FCC3}"/>
+    <hyperlink ref="B11" r:id="rId9" tooltip="Taxonomy for Staphylococcus agnetis" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?id=985762" xr:uid="{828F877B-02A5-47B0-B6CC-56B73310FE47}"/>
+    <hyperlink ref="B25" r:id="rId10" tooltip="Taxonomy for Staphylococcus agnetis" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?id=985762" xr:uid="{2F3C5300-9803-4BFE-AF01-B8E153820C88}"/>
+    <hyperlink ref="B6" r:id="rId11" tooltip="Taxonomy for Staphylococcus agnetis" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?id=985762" xr:uid="{84857926-BDF4-4BBD-BD2D-E70AC7F91851}"/>
+    <hyperlink ref="B27" r:id="rId12" tooltip="Taxonomy for Staphylococcus agnetis" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?id=985762" xr:uid="{FA9890CC-C5F9-4BA3-AFB1-B43467AC77E9}"/>
+    <hyperlink ref="B5" r:id="rId13" tooltip="Taxonomy for Staphylococcus agnetis" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?id=985762" xr:uid="{EF488B37-9A67-454A-A3C4-D8E6A6BEE747}"/>
+    <hyperlink ref="B17" r:id="rId14" tooltip="Taxonomy for Staphylococcus hyicus" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?id=1284" xr:uid="{DD0F7134-4B33-4724-8790-C04A878CE17F}"/>
+    <hyperlink ref="B22" r:id="rId15" tooltip="Taxonomy for Staphylococcus hyicus" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?id=1284" xr:uid="{521670BD-24D7-4F61-B578-FAE3A48A8A07}"/>
+    <hyperlink ref="B7" r:id="rId16" tooltip="Taxonomy for Staphylococcus agnetis" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?id=985762" xr:uid="{B3F6CE9F-6E0A-43B2-821A-B6B7383A3BFD}"/>
+    <hyperlink ref="B10" r:id="rId17" tooltip="Taxonomy for Staphylococcus agnetis" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?id=985762" xr:uid="{58DC4B9C-D380-4CD9-B6E0-B7C9EECDAD7B}"/>
+    <hyperlink ref="B15" r:id="rId18" tooltip="Taxonomy for Staphylococcus agnetis" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?id=985762" xr:uid="{56D6F632-CA20-4FBA-BF08-487D5E376FB3}"/>
+    <hyperlink ref="B13" r:id="rId19" tooltip="Taxonomy for Staphylococcus agnetis" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?id=985762" xr:uid="{08475357-0BCB-4E5F-B6A0-A7A7BC344631}"/>
+    <hyperlink ref="B9" r:id="rId20" tooltip="Taxonomy for Staphylococcus agnetis" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?id=985762" xr:uid="{247674AB-16C9-4727-B7F7-B1112AAE4F9B}"/>
+    <hyperlink ref="B21" r:id="rId21" tooltip="Taxonomy for Staphylococcus pseudintermedius" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?id=283734" xr:uid="{4CF23D30-8B6D-4093-BCE5-1ECC81F9F94C}"/>
+    <hyperlink ref="B8" r:id="rId22" tooltip="Taxonomy for Staphylococcus agnetis" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?id=985762" xr:uid="{6300E998-E4F3-4111-BD86-FC84285B4D44}"/>
+    <hyperlink ref="B16" r:id="rId23" tooltip="Taxonomy for Staphylococcus agnetis" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?id=985762" xr:uid="{C78CFFB8-6950-4615-9E6E-C5F2B79DE8F5}"/>
+    <hyperlink ref="B2" r:id="rId24" tooltip="Taxonomy for Staphylococcus agnetis" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?id=985762" xr:uid="{65C4D523-5EF7-4DA6-824C-53562EBDDB02}"/>
+    <hyperlink ref="B26" r:id="rId25" tooltip="Taxonomy for Staphylococcus agnetis" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?id=985762" xr:uid="{3A968969-0F4E-41EB-9342-7FF2FB4E6925}"/>
+    <hyperlink ref="B12" r:id="rId26" tooltip="Taxonomy for Staphylococcus agnetis" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?id=985762" xr:uid="{D337506C-6CE9-40A5-9FE9-BB4A57BEA20F}"/>
+    <hyperlink ref="B4" r:id="rId27" tooltip="Taxonomy for Staphylococcus agnetis" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?id=985762" xr:uid="{6C7B1284-1596-424B-A76D-1E2610B07922}"/>
+    <hyperlink ref="B24" r:id="rId28" tooltip="Taxonomy for Staphylococcus hyicus" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?id=1284" xr:uid="{A5D7EE52-A31B-4C16-BB25-840CC0118E85}"/>
+    <hyperlink ref="B14" r:id="rId29" tooltip="Taxonomy for Staphylococcus hyicus" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?id=1284" xr:uid="{9514EF39-35EC-4A32-A7B9-5C4C8DA2D661}"/>
+    <hyperlink ref="B1" r:id="rId30" tooltip="Taxonomy for Staphylococcus agnetis" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?id=985762" xr:uid="{98529C63-25F3-405A-A0F4-4D91F2DA9505}"/>
+    <hyperlink ref="B31" r:id="rId31" tooltip="Taxonomy for Staphylococcus agnetis" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?id=985762" xr:uid="{04982F82-623E-4BC0-9D53-9C20D1FE8747}"/>
+    <hyperlink ref="B32" r:id="rId32" tooltip="Taxonomy for Staphylococcus cohnii" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?id=29382" xr:uid="{47C95033-D5AD-49A9-A7F0-A6C4225C5CAE}"/>
+    <hyperlink ref="B33" r:id="rId33" tooltip="Taxonomy for Staphylococcus cohnii" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?id=29382" xr:uid="{EB21D5B9-F745-4B4D-96C9-D477A0B41968}"/>
+    <hyperlink ref="B34" r:id="rId34" tooltip="Taxonomy for Staphylococcus chromogenes" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?id=46126" xr:uid="{FA5A7EFB-2467-4D67-BE39-9313322F4D5D}"/>
+    <hyperlink ref="B35" r:id="rId35" tooltip="Taxonomy for Staphylococcus chromogenes" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?id=46126" xr:uid="{A229D13A-61CC-44EA-A229-A951076F4FF3}"/>
+    <hyperlink ref="B36" r:id="rId36" tooltip="Taxonomy for Staphylococcus chromogenes" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?id=46126" xr:uid="{356C2C45-957C-4EEB-AC0A-E54D631C0AB6}"/>
+    <hyperlink ref="B37" r:id="rId37" tooltip="Taxonomy for Staphylococcus agnetis" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?id=985762" xr:uid="{1C34E7BB-641A-4095-BA15-B899A2C69E52}"/>
+    <hyperlink ref="B38" r:id="rId38" tooltip="Taxonomy for Mammaliicoccus fleurettii" display="https://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?id=150056" xr:uid="{01C3869A-F357-4479-9585-3AF44BEA1F82}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AB1000"/>
   <sheetViews>
-    <sheetView zoomScale="65" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView topLeftCell="G1" zoomScale="65" workbookViewId="0">
+      <selection activeCell="A32" sqref="A2:XFD32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -4113,13 +4627,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:AC18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="76" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView zoomScale="76" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11:XFD11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4853,25 +5367,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFA04D06-A254-4CA6-8FC2-1A4EB0FE3A57}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:N39"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScale="80" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView zoomScale="80" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16:XFD17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6177,7 +6679,7 @@
   <dimension ref="A1:Z12"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+      <selection activeCell="B2" sqref="B2:J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/OREI_files/10-herd data/10herd_species_ID_from_sequencing.xlsx
+++ b/OREI_files/10-herd data/10herd_species_ID_from_sequencing.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c792ef73e4c0296d/Documents/OREI files and Git repo/OREI_Git/OREI_files/10-herd data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="8" documentId="14_{B1AF9F48-697F-4479-931F-AA593F2E6926}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4000E309-7EF5-4316-9477-D6651F0419AE}"/>
+  <xr:revisionPtr revIDLastSave="12" documentId="14_{B1AF9F48-697F-4479-931F-AA593F2E6926}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C7F44667-49B3-4348-8DEE-0DAC1A52D851}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="0" windowWidth="12980" windowHeight="15370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="nasm_SCC manuscript tuf questio" sheetId="10" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="737" uniqueCount="251">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="739" uniqueCount="252">
   <si>
     <t>sample</t>
   </si>
@@ -782,6 +782,9 @@
   </si>
   <si>
     <t>NO ID</t>
+  </si>
+  <si>
+    <t>&lt;--- these ones had been called "NO ID" vs. the others were called "Staph. spp."</t>
   </si>
 </sst>
 </file>
@@ -1174,6 +1177,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="3" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="3" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="15" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1183,15 +1195,6 @@
     <xf numFmtId="0" fontId="15" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="3"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="3" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="3" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="3" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="3" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1480,443 +1483,448 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23A634FC-32AE-4F7E-A3A9-D6F87656974C}">
-  <dimension ref="A1:C39"/>
+  <dimension ref="A1:D39"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A32" sqref="A32:XFD39"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="75" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="K42" sqref="K42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="8.7265625" style="60"/>
-    <col min="2" max="2" width="29.453125" style="60" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="8.7265625" style="60"/>
+    <col min="1" max="1" width="8.7265625" style="57"/>
+    <col min="2" max="2" width="29.453125" style="57" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="8.7265625" style="57"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A1" s="65" t="s">
+      <c r="A1" s="62" t="s">
         <v>84</v>
       </c>
       <c r="B1" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="C1" s="65" t="s">
+      <c r="C1" s="62" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A2" s="65" t="s">
+      <c r="A2" s="62" t="s">
         <v>72</v>
       </c>
       <c r="B2" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="65" t="s">
+      <c r="C2" s="62" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A3" s="65" t="s">
+      <c r="A3" s="62" t="s">
         <v>31</v>
       </c>
       <c r="B3" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="60" t="s">
+      <c r="C3" s="57" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A4" s="65" t="s">
+      <c r="A4" s="62" t="s">
         <v>78</v>
       </c>
       <c r="B4" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="65" t="s">
+      <c r="C4" s="62" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A5" s="65" t="s">
+      <c r="A5" s="62" t="s">
         <v>49</v>
       </c>
       <c r="B5" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="60" t="s">
+      <c r="C5" s="57" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A6" s="65" t="s">
+      <c r="A6" s="62" t="s">
         <v>45</v>
       </c>
       <c r="B6" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="60" t="s">
+      <c r="C6" s="57" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A7" s="65" t="s">
+      <c r="A7" s="62" t="s">
         <v>55</v>
       </c>
       <c r="B7" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="65" t="s">
+      <c r="C7" s="62" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A8" s="65" t="s">
+      <c r="A8" s="62" t="s">
         <v>68</v>
       </c>
       <c r="B8" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="65" t="s">
+      <c r="C8" s="62" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A9" s="65" t="s">
+      <c r="A9" s="62" t="s">
         <v>63</v>
       </c>
       <c r="B9" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="65" t="s">
+      <c r="C9" s="62" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A10" s="65" t="s">
+      <c r="A10" s="62" t="s">
         <v>57</v>
       </c>
       <c r="B10" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="65" t="s">
+      <c r="C10" s="62" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A11" s="65" t="s">
+      <c r="A11" s="62" t="s">
         <v>39</v>
       </c>
       <c r="B11" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="60" t="s">
+      <c r="C11" s="57" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A12" s="65" t="s">
+      <c r="A12" s="62" t="s">
         <v>76</v>
       </c>
       <c r="B12" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="65" t="s">
+      <c r="C12" s="62" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A13" s="65" t="s">
+      <c r="A13" s="62" t="s">
         <v>61</v>
       </c>
       <c r="B13" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="C13" s="65" t="s">
+      <c r="C13" s="62" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A14" s="66" t="s">
+      <c r="A14" s="63" t="s">
         <v>82</v>
       </c>
       <c r="B14" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="C14" s="65" t="s">
+      <c r="C14" s="62" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A15" s="65" t="s">
+      <c r="A15" s="62" t="s">
         <v>58</v>
       </c>
       <c r="B15" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="C15" s="65" t="s">
+      <c r="C15" s="62" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A16" s="65" t="s">
+      <c r="A16" s="62" t="s">
         <v>69</v>
       </c>
       <c r="B16" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="C16" s="65" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A17" s="66" t="s">
+      <c r="C16" s="62" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A17" s="63" t="s">
         <v>51</v>
       </c>
       <c r="B17" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="C17" s="60" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A18" s="66" t="s">
+      <c r="C17" s="57" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A18" s="63" t="s">
         <v>33</v>
       </c>
       <c r="B18" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="C18" s="60" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A19" s="65" t="s">
+      <c r="C18" s="57" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A19" s="62" t="s">
         <v>37</v>
       </c>
       <c r="B19" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="C19" s="60" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A20" s="65" t="s">
+      <c r="C19" s="57" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A20" s="62" t="s">
         <v>23</v>
       </c>
       <c r="B20" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="C20" s="60" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A21" s="65" t="s">
+      <c r="C20" s="57" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A21" s="62" t="s">
         <v>65</v>
       </c>
       <c r="B21" s="37" t="s">
         <v>66</v>
       </c>
-      <c r="C21" s="65" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A22" s="66" t="s">
+      <c r="C21" s="62" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A22" s="63" t="s">
         <v>52</v>
       </c>
       <c r="B22" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="C22" s="60" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A23" s="66" t="s">
+      <c r="C22" s="57" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A23" s="63" t="s">
         <v>27</v>
       </c>
       <c r="B23" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="C23" s="60" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A24" s="66" t="s">
+      <c r="C23" s="57" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A24" s="63" t="s">
         <v>80</v>
       </c>
       <c r="B24" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="C24" s="65" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A25" s="65" t="s">
+      <c r="C24" s="62" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A25" s="62" t="s">
         <v>41</v>
       </c>
       <c r="B25" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="C25" s="60" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A26" s="65" t="s">
+      <c r="C25" s="57" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A26" s="62" t="s">
         <v>74</v>
       </c>
       <c r="B26" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="C26" s="65" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A27" s="65" t="s">
+      <c r="C26" s="62" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A27" s="62" t="s">
         <v>47</v>
       </c>
       <c r="B27" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="C27" s="60" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A28" s="65" t="s">
+      <c r="C27" s="57" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A28" s="62" t="s">
         <v>25</v>
       </c>
       <c r="B28" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="C28" s="60" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A29" s="60" t="s">
+      <c r="C28" s="57" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A29" s="57" t="s">
         <v>16</v>
       </c>
       <c r="B29" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="C29" s="60" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A30" s="65" t="s">
+      <c r="C29" s="57" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A30" s="62" t="s">
         <v>34</v>
       </c>
-      <c r="B30" s="64" t="s">
-        <v>20</v>
-      </c>
-      <c r="C30" s="60" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A31" s="62" t="s">
+      <c r="B30" s="61" t="s">
+        <v>20</v>
+      </c>
+      <c r="C30" s="57" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A31" s="59" t="s">
         <v>225</v>
       </c>
-      <c r="B31" s="61" t="s">
-        <v>20</v>
-      </c>
-      <c r="C31" s="62"/>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A32" s="60" t="s">
+      <c r="B31" s="58" t="s">
+        <v>20</v>
+      </c>
+      <c r="C31" s="59" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A32" s="57" t="s">
         <v>85</v>
       </c>
-      <c r="B32" s="63" t="s">
+      <c r="B32" s="60" t="s">
         <v>88</v>
       </c>
-      <c r="C32" s="60" t="s">
+      <c r="C32" s="57" t="s">
         <v>250</v>
       </c>
+      <c r="D32" s="57" t="s">
+        <v>251</v>
+      </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A33" s="60" t="s">
+      <c r="A33" s="57" t="s">
         <v>93</v>
       </c>
-      <c r="B33" s="63" t="s">
+      <c r="B33" s="60" t="s">
         <v>88</v>
       </c>
-      <c r="C33" s="60" t="s">
+      <c r="C33" s="57" t="s">
         <v>250</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A34" s="60" t="s">
+      <c r="A34" s="57" t="s">
         <v>160</v>
       </c>
-      <c r="B34" s="63" t="s">
+      <c r="B34" s="60" t="s">
         <v>115</v>
       </c>
-      <c r="C34" s="60" t="s">
+      <c r="C34" s="57" t="s">
         <v>250</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A35" s="60" t="s">
+      <c r="A35" s="57" t="s">
         <v>137</v>
       </c>
-      <c r="B35" s="63" t="s">
+      <c r="B35" s="60" t="s">
         <v>115</v>
       </c>
-      <c r="C35" s="60" t="s">
+      <c r="C35" s="57" t="s">
         <v>250</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A36" s="60" t="s">
+      <c r="A36" s="57" t="s">
         <v>190</v>
       </c>
-      <c r="B36" s="63" t="s">
+      <c r="B36" s="60" t="s">
         <v>115</v>
       </c>
-      <c r="C36" s="60" t="s">
+      <c r="C36" s="57" t="s">
         <v>250</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A37" s="60" t="s">
+      <c r="A37" s="57" t="s">
         <v>90</v>
       </c>
-      <c r="B37" s="63" t="s">
-        <v>20</v>
-      </c>
-      <c r="C37" s="60" t="s">
+      <c r="B37" s="60" t="s">
+        <v>20</v>
+      </c>
+      <c r="C37" s="57" t="s">
         <v>250</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A38" s="60" t="s">
+      <c r="A38" s="57" t="s">
         <v>180</v>
       </c>
-      <c r="B38" s="63" t="s">
+      <c r="B38" s="60" t="s">
         <v>177</v>
       </c>
-      <c r="C38" s="60" t="s">
+      <c r="C38" s="57" t="s">
         <v>250</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A39" s="62" t="s">
+      <c r="A39" s="59" t="s">
         <v>212</v>
       </c>
-      <c r="B39" s="61" t="s">
+      <c r="B39" s="58" t="s">
         <v>177</v>
       </c>
-      <c r="C39" s="60" t="s">
+      <c r="C39" s="57" t="s">
         <v>250</v>
       </c>
     </row>
@@ -5173,7 +5181,7 @@
       </c>
     </row>
     <row r="12" spans="1:29" x14ac:dyDescent="0.35">
-      <c r="A12" s="57" t="s">
+      <c r="A12" s="64" t="s">
         <v>226</v>
       </c>
       <c r="B12" t="s">
@@ -5217,7 +5225,7 @@
       </c>
     </row>
     <row r="13" spans="1:29" ht="32.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="58"/>
+      <c r="A13" s="65"/>
       <c r="B13" t="s">
         <v>224</v>
       </c>
@@ -5259,7 +5267,7 @@
       </c>
     </row>
     <row r="14" spans="1:29" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="59"/>
+      <c r="A14" s="66"/>
       <c r="B14" s="56" t="s">
         <v>248</v>
       </c>
